--- a/desinventar/localbodies.xlsx
+++ b/desinventar/localbodies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learn2code\desinventar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learn2code\python_pandas\desinventar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3379,7 +3379,7 @@
   <dimension ref="A1:H775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="E633" sqref="E633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19664,7 +19664,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>692</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>693</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>694</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>695</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>696</v>
       </c>
@@ -21510,7 +21510,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>697</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>698</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>699</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>700</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>701</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>702</v>
       </c>
@@ -23542,7 +23542,7 @@
   <autoFilter ref="A1:H775">
     <filterColumn colId="3">
       <filters>
-        <filter val="ACHHAM"/>
+        <filter val="JAJARKOT"/>
       </filters>
     </filterColumn>
   </autoFilter>
